--- a/DONE/MAULLON, JAENA.xlsx
+++ b/DONE/MAULLON, JAENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69A609C-85D1-48F3-9038-84EBC3AD0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -287,12 +286,15 @@
   </si>
   <si>
     <t>1/18,19,20/2023</t>
+  </si>
+  <si>
+    <t>3/8,9/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -671,14 +673,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -688,9 +693,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,7 +1223,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1266,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1330,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1390,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1456,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1519,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1617,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1676,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1741,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1784,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1859,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2045,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2111,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2169,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2235,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2291,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2366,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2409,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2475,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2531,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,25 +2627,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2655,25 +2657,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2980,7 +2982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2990,7 +2992,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2998,34 +3000,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3037,18 +3039,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3057,18 +3059,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3079,18 +3081,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3098,7 +3100,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3111,24 +3113,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3172,7 +3174,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>36.209000000000003</v>
+        <v>37.459000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3187,7 +3189,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3209,7 +3211,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3229,7 +3231,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3249,7 +3251,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3269,7 +3271,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3289,7 +3291,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3309,7 +3311,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3329,7 +3331,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3349,7 +3351,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3369,7 +3371,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3415,7 +3417,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3435,7 +3437,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -3479,7 +3481,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3499,7 +3501,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3519,7 +3521,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3539,7 +3541,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3559,7 +3561,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3579,7 +3581,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3599,7 +3601,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3619,7 +3621,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3639,7 +3641,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3659,7 +3661,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3679,7 +3681,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3699,7 +3701,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3723,7 +3725,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>59</v>
       </c>
@@ -3741,7 +3743,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3761,7 +3763,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3787,7 +3789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3807,7 +3809,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3827,7 +3829,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3847,7 +3849,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3867,7 +3869,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44025</v>
       </c>
@@ -3887,7 +3889,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44763</v>
       </c>
@@ -3907,7 +3909,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3927,7 +3929,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -3973,7 +3975,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -3993,7 +3995,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4013,7 +4015,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>65</v>
       </c>
@@ -4031,7 +4033,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4051,7 +4053,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4071,7 +4073,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4111,7 +4113,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4131,7 +4133,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4151,7 +4153,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4171,7 +4173,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4191,7 +4193,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4211,7 +4213,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4251,7 +4253,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4275,7 +4277,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>66</v>
       </c>
@@ -4293,7 +4295,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4313,7 +4315,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4333,7 +4335,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4405,7 +4407,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4425,7 +4427,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4445,7 +4447,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4491,7 +4493,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>52</v>
@@ -4539,7 +4541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
@@ -4559,7 +4561,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44896</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>55</v>
@@ -4605,7 +4607,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>76</v>
       </c>
@@ -4623,7 +4625,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>52</v>
@@ -4671,7 +4673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -4688,12 +4690,14 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
@@ -4703,7 +4707,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4718,7 +4722,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -4736,7 +4740,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
@@ -4754,7 +4758,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45108</v>
       </c>
@@ -4772,7 +4776,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45139</v>
       </c>
@@ -4790,7 +4794,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45170</v>
       </c>
@@ -4808,7 +4812,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45200</v>
       </c>
@@ -4826,7 +4830,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45231</v>
       </c>
@@ -4844,7 +4848,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45261</v>
       </c>
@@ -4862,7 +4866,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45292</v>
       </c>
@@ -4880,7 +4884,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45323</v>
       </c>
@@ -4898,7 +4902,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45352</v>
       </c>
@@ -4916,7 +4920,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45383</v>
       </c>
@@ -4934,7 +4938,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45413</v>
       </c>
@@ -4952,7 +4956,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45444</v>
       </c>
@@ -4970,7 +4974,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45474</v>
       </c>
@@ -4988,7 +4992,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45505</v>
       </c>
@@ -5006,7 +5010,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45536</v>
       </c>
@@ -5024,7 +5028,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45566</v>
       </c>
@@ -5042,7 +5046,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45597</v>
       </c>
@@ -5060,7 +5064,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45627</v>
       </c>
@@ -5078,7 +5082,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45658</v>
       </c>
@@ -5096,7 +5100,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45689</v>
       </c>
@@ -5114,7 +5118,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45717</v>
       </c>
@@ -5132,7 +5136,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45748</v>
       </c>
@@ -5150,7 +5154,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45778</v>
       </c>
@@ -5168,7 +5172,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45809</v>
       </c>
@@ -5186,7 +5190,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45839</v>
       </c>
@@ -5204,7 +5208,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45870</v>
       </c>
@@ -5222,7 +5226,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45901</v>
       </c>
@@ -5240,7 +5244,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45931</v>
       </c>
@@ -5258,7 +5262,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45962</v>
       </c>
@@ -5276,7 +5280,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45992</v>
       </c>
@@ -5294,7 +5298,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46023</v>
       </c>
@@ -5312,7 +5316,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46054</v>
       </c>
@@ -5330,7 +5334,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46082</v>
       </c>
@@ -5348,7 +5352,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46113</v>
       </c>
@@ -5366,7 +5370,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46143</v>
       </c>
@@ -5384,7 +5388,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46174</v>
       </c>
@@ -5402,7 +5406,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46204</v>
       </c>
@@ -5420,7 +5424,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46235</v>
       </c>
@@ -5438,7 +5442,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46266</v>
       </c>
@@ -5456,7 +5460,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46296</v>
       </c>
@@ -5474,7 +5478,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5490,7 +5494,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5506,7 +5510,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5522,7 +5526,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5538,7 +5542,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5554,7 +5558,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5570,7 +5574,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5586,7 +5590,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5604,23 +5608,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5643,34 +5647,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="K86" sqref="K86"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5682,18 +5686,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5702,18 +5706,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5724,18 +5728,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5743,7 +5747,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5756,24 +5760,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5827,12 +5831,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5854,7 +5858,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -5926,7 +5930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>51</v>
@@ -5946,7 +5950,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43435</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>56</v>
       </c>
@@ -5988,7 +5992,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43678</v>
       </c>
@@ -6010,7 +6014,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43739</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>59</v>
       </c>
@@ -6052,7 +6056,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43862</v>
       </c>
@@ -6094,7 +6098,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44044</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>66</v>
       </c>
@@ -6134,7 +6138,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44835</v>
       </c>
@@ -6158,7 +6162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44896</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>76</v>
       </c>
@@ -6200,7 +6204,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44927</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44958</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>80</v>
@@ -6270,9 +6274,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6281,12 +6289,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>2</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6302,7 +6314,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6318,7 +6330,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6334,7 +6346,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6350,7 +6362,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6366,7 +6378,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6382,7 +6394,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6398,7 +6410,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6414,7 +6426,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6430,7 +6442,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6446,7 +6458,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6462,7 +6474,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6478,7 +6490,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6494,7 +6506,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6510,7 +6522,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6526,7 +6538,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6542,7 +6554,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6558,7 +6570,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6574,7 +6586,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6590,7 +6602,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6606,7 +6618,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6622,7 +6634,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6638,7 +6650,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6654,7 +6666,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6670,7 +6682,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6686,7 +6698,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6702,7 +6714,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6718,7 +6730,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6734,7 +6746,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6750,7 +6762,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6766,7 +6778,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6782,7 +6794,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6798,7 +6810,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6814,7 +6826,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6830,7 +6842,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6846,7 +6858,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6862,7 +6874,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6878,7 +6890,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6894,7 +6906,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6910,7 +6922,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6926,7 +6938,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6942,7 +6954,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6958,7 +6970,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6974,7 +6986,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6990,7 +7002,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7006,7 +7018,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7022,7 +7034,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7038,7 +7050,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7054,7 +7066,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="15"/>
       <c r="C79" s="42"/>
@@ -7085,10 +7097,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7111,28 +7123,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7145,7 +7157,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7174,7 +7186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>17.341000000000001</v>
       </c>
@@ -7198,17 +7210,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7229,7 +7241,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7256,7 +7268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7282,7 +7294,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7308,7 +7320,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7334,7 +7346,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7360,7 +7372,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7386,7 +7398,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7412,7 +7424,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7438,7 +7450,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7458,7 +7470,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7478,7 +7490,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7498,7 +7510,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7519,7 +7531,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7540,7 +7552,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7561,7 +7573,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7582,7 +7594,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7603,7 +7615,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7624,7 +7636,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7645,7 +7657,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7666,7 +7678,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7687,7 +7699,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7708,7 +7720,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7729,7 +7741,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7750,7 +7762,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7771,7 +7783,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7792,7 +7804,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7813,7 +7825,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7834,7 +7846,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7855,7 +7867,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7876,7 +7888,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7897,7 +7909,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7918,7 +7930,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7927,7 +7939,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7936,7 +7948,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7945,7 +7957,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7954,7 +7966,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7963,7 +7975,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7972,7 +7984,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7981,7 +7993,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7990,7 +8002,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7999,7 +8011,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8008,7 +8020,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8017,7 +8029,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8026,7 +8038,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8035,7 +8047,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8044,7 +8056,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8053,7 +8065,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8062,7 +8074,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8071,7 +8083,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8080,7 +8092,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8089,7 +8101,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8098,7 +8110,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8107,7 +8119,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8116,7 +8128,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8125,7 +8137,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8134,7 +8146,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8143,7 +8155,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8152,7 +8164,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8161,7 +8173,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8170,7 +8182,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8179,7 +8191,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DONE/MAULLON, JAENA.xlsx
+++ b/DONE/MAULLON, JAENA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -673,17 +673,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,6 +690,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,7 +1223,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1266,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1330,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1519,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1676,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1741,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1784,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1859,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2045,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2111,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2169,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2291,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2366,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2409,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2475,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2531,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,10 +3006,10 @@
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,16 +3039,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3059,16 +3059,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3081,16 +3081,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3116,18 +3116,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5608,19 +5608,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -5629,7 +5629,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5637,8 +5637,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                           OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5653,7 +5653,7 @@
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="K86" sqref="K86"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
@@ -5686,16 +5686,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5706,16 +5706,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5728,16 +5728,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5763,18 +5763,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
